--- a/timetabling_GA/results/HK1_CT01/TKB_Semester_Schedule.xlsx
+++ b/timetabling_GA/results/HK1_CT01/TKB_Semester_Schedule.xlsx
@@ -84,14 +84,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFE699"/>
-        <bgColor rgb="00FFE699"/>
+        <fgColor rgb="00BDD7EE"/>
+        <bgColor rgb="00BDD7EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDD7EE"/>
-        <bgColor rgb="00BDD7EE"/>
+        <fgColor rgb="00FFE699"/>
+        <bgColor rgb="00FFE699"/>
       </patternFill>
     </fill>
   </fills>
@@ -552,7 +552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,120 +701,141 @@
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr"/>
+      <c r="I12" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="11" t="inlineStr">
         <is>
           <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
@@ -834,115 +855,36 @@
       <c r="C14" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D14" s="8" t="inlineStr"/>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D15" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="10" t="n"/>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
-      <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="H14" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I17" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -954,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,120 +1045,141 @@
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr"/>
+      <c r="I12" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="11" t="inlineStr">
         <is>
           <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
@@ -1236,115 +1199,36 @@
       <c r="C14" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D14" s="8" t="inlineStr"/>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D15" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="10" t="n"/>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
-      <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="H14" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I17" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1356,7 +1240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1505,120 +1389,141 @@
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr"/>
+      <c r="I12" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="11" t="inlineStr">
         <is>
           <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
@@ -1638,115 +1543,36 @@
       <c r="C14" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D14" s="8" t="inlineStr"/>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D15" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="10" t="n"/>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
-      <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="H14" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I17" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1758,7 +1584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1907,120 +1733,141 @@
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr"/>
+      <c r="I12" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="11" t="inlineStr">
         <is>
           <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
@@ -2040,115 +1887,36 @@
       <c r="C14" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D14" s="8" t="inlineStr"/>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D15" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="10" t="n"/>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
-      <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="H14" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I17" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2160,7 +1928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2309,120 +2077,141 @@
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr"/>
+      <c r="I12" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="11" t="inlineStr">
         <is>
           <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
@@ -2442,115 +2231,36 @@
       <c r="C14" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D14" s="8" t="inlineStr"/>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D15" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="10" t="n"/>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
-      <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="H14" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I17" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2562,7 +2272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2711,120 +2421,141 @@
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr"/>
+      <c r="I12" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="11" t="inlineStr">
         <is>
           <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
@@ -2844,115 +2575,36 @@
       <c r="C14" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D14" s="8" t="inlineStr"/>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D15" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="10" t="n"/>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
-      <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="H14" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I17" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2964,7 +2616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3113,120 +2765,141 @@
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr"/>
+      <c r="I12" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="11" t="inlineStr">
         <is>
           <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
@@ -3246,115 +2919,36 @@
       <c r="C14" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D14" s="8" t="inlineStr"/>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D15" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="10" t="n"/>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
-      <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="H14" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I17" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3366,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3515,120 +3109,141 @@
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr"/>
+      <c r="I12" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="11" t="inlineStr">
         <is>
           <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
@@ -3648,115 +3263,36 @@
       <c r="C14" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D14" s="8" t="inlineStr"/>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D15" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="10" t="n"/>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
-      <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="H14" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I17" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3768,7 +3304,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3917,120 +3453,141 @@
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr"/>
+      <c r="I12" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="11" t="inlineStr">
         <is>
           <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
@@ -4050,115 +3607,36 @@
       <c r="C14" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D14" s="8" t="inlineStr"/>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D15" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="10" t="n"/>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
-      <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="H14" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I17" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4170,7 +3648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4319,120 +3797,141 @@
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr"/>
+      <c r="I12" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="11" t="inlineStr">
         <is>
           <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
@@ -4452,115 +3951,36 @@
       <c r="C14" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D14" s="8" t="inlineStr"/>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D15" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="10" t="n"/>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
-      <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="H14" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I17" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4572,7 +3992,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4721,120 +4141,141 @@
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr"/>
+      <c r="I12" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="11" t="inlineStr">
         <is>
           <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
@@ -4854,115 +4295,36 @@
       <c r="C14" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D14" s="8" t="inlineStr"/>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D15" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="10" t="n"/>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
-      <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="H14" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I17" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4974,7 +4336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5123,120 +4485,141 @@
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr"/>
+      <c r="I12" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="11" t="inlineStr">
         <is>
           <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
@@ -5256,115 +4639,36 @@
       <c r="C14" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D14" s="8" t="inlineStr"/>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D15" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="10" t="n"/>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
-      <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="H14" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I17" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5376,7 +4680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5525,120 +4829,141 @@
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr"/>
+      <c r="I12" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="11" t="inlineStr">
         <is>
           <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
@@ -5658,115 +4983,36 @@
       <c r="C14" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D14" s="8" t="inlineStr"/>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D15" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="10" t="n"/>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
-      <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="H14" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I17" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5778,7 +5024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5927,120 +5173,141 @@
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr"/>
+      <c r="I12" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="11" t="inlineStr">
         <is>
           <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
@@ -6060,115 +5327,36 @@
       <c r="C14" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D14" s="8" t="inlineStr"/>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D15" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="10" t="n"/>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
-      <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="H14" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I17" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6180,7 +5368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6329,120 +5517,141 @@
       </c>
       <c r="D9" s="8" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="H9" s="8" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="10" t="n"/>
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
       <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB02
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="H11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr"/>
+      <c r="I12" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="11" t="inlineStr">
         <is>
           <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
@@ -6462,115 +5671,36 @@
       <c r="C14" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="D14" s="8" t="inlineStr"/>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R101
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="8" t="inlineStr"/>
-      <c r="I14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D15" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="10" t="n"/>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="8" t="inlineStr"/>
-      <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="H14" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I17" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/timetabling_GA/results/HK1_CT01/TKB_Semester_Schedule.xlsx
+++ b/timetabling_GA/results/HK1_CT01/TKB_Semester_Schedule.xlsx
@@ -154,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -187,6 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -552,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,63 +688,63 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -755,41 +756,22 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -800,91 +782,313 @@
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="I12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="10" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB01
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>Cơ sở dữ liệu
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="I14" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E16" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="12" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -896,7 +1100,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,63 +1235,63 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -1099,41 +1303,22 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -1144,91 +1329,313 @@
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="I12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="10" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB01
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>Cơ sở dữ liệu
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="I14" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E16" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="12" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1240,7 +1647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1375,63 +1782,63 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -1443,41 +1850,22 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -1488,91 +1876,313 @@
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="I12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="10" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB01
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>Cơ sở dữ liệu
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="I14" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E16" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="12" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1584,7 +2194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1719,63 +2329,63 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -1787,41 +2397,22 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -1832,91 +2423,313 @@
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="I12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="10" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB01
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>Cơ sở dữ liệu
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="I14" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E16" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="12" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1928,7 +2741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2063,63 +2876,63 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -2131,41 +2944,22 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -2176,91 +2970,313 @@
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="I12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="10" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB01
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>Cơ sở dữ liệu
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="I14" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E16" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="12" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2272,7 +3288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2407,63 +3423,63 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -2475,41 +3491,22 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -2520,91 +3517,313 @@
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="I12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="10" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB01
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>Cơ sở dữ liệu
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="I14" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E16" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="12" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2616,7 +3835,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2751,63 +3970,63 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -2819,41 +4038,22 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -2864,91 +4064,313 @@
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="I12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="10" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB01
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>Cơ sở dữ liệu
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="I14" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E16" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="12" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2960,7 +4382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3095,63 +4517,63 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -3163,41 +4585,22 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -3208,91 +4611,313 @@
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="I12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="10" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB01
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>Cơ sở dữ liệu
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="I14" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E16" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="12" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3304,7 +4929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3439,63 +5064,63 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -3507,41 +5132,22 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -3552,91 +5158,313 @@
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="I12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="10" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB01
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>Cơ sở dữ liệu
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="I14" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E16" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="12" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3648,7 +5476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3783,63 +5611,63 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -3851,41 +5679,22 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -3896,91 +5705,313 @@
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="I12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="10" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB01
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>Cơ sở dữ liệu
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="I14" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E16" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="12" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3992,7 +6023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4127,63 +6158,63 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -4195,41 +6226,22 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -4240,91 +6252,313 @@
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="I12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="10" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB01
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>Cơ sở dữ liệu
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="I14" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E16" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="12" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4336,7 +6570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4471,63 +6705,63 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -4539,41 +6773,22 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -4584,91 +6799,313 @@
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="I12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="10" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB01
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>Cơ sở dữ liệu
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="I14" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E16" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="12" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4680,7 +7117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4815,63 +7252,63 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -4883,41 +7320,22 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -4928,91 +7346,313 @@
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="I12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="10" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB01
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>Cơ sở dữ liệu
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="I14" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E16" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="12" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5024,7 +7664,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5159,63 +7799,63 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -5227,41 +7867,22 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -5272,91 +7893,313 @@
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="I12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="10" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB01
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>Cơ sở dữ liệu
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="I14" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E16" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="12" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5368,7 +8211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5503,63 +8346,63 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="7" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr"/>
+      <c r="G9" s="8" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr"/>
+      <c r="G10" s="8" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="8" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="10" t="n"/>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
@@ -5571,41 +8414,22 @@
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="H11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Lê Văn C</t>
+      <c r="G11" s="8" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr"/>
+      <c r="I11" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -5616,91 +8440,313 @@
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
       <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
+      <c r="I12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr"/>
+      <c r="G13" s="8" t="inlineStr"/>
+      <c r="H13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
 (Thực hành)
 Phòng: LAB03
-GV: Lê Văn C</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="10" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>CL02</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB01
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB01
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr"/>
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="A14" s="10" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R101
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
       <c r="F14" s="8" t="inlineStr"/>
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>Cơ sở dữ liệu
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="8" t="inlineStr"/>
+      <c r="G15" s="8" t="inlineStr"/>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="I14" s="8" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E16" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H16" s="8" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="12" t="n"/>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr"/>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL01</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D20" s="8" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" s="8" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB03
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/timetabling_GA/results/HK1_CT01/TKB_Semester_Schedule.xlsx
+++ b/timetabling_GA/results/HK1_CT01/TKB_Semester_Schedule.xlsx
@@ -553,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,42 +701,42 @@
         <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -747,11 +747,11 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
@@ -763,7 +763,7 @@
           <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
-GV: Nguyễn Văn A</t>
+GV: Lê Văn C</t>
         </is>
       </c>
     </row>
@@ -771,25 +771,32 @@
       <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
@@ -809,29 +816,29 @@
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -839,28 +846,23 @@
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
-      <c r="F14" s="8" t="inlineStr"/>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
@@ -870,224 +872,255 @@
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
       <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E16" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB02
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
         </is>
       </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E17" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="12" t="n"/>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>CL06</t>
-        </is>
-      </c>
       <c r="C18" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
-      <c r="F18" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
       <c r="F19" s="8" t="inlineStr"/>
-      <c r="G19" s="8" t="inlineStr"/>
-      <c r="H19" s="9" t="inlineStr">
+      <c r="G19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="9" t="inlineStr">
         <is>
           <t>Lập trình cơ bản
 (Lý thuyết)
 Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I19" s="8" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D20" s="8" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr"/>
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G20" s="8" t="inlineStr"/>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="10" t="n"/>
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R102
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="12" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D22" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="8" t="inlineStr"/>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
 GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1100,7 +1133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1248,42 +1281,42 @@
         <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -1294,11 +1327,11 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
@@ -1310,7 +1343,7 @@
           <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
-GV: Nguyễn Văn A</t>
+GV: Lê Văn C</t>
         </is>
       </c>
     </row>
@@ -1318,25 +1351,32 @@
       <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
@@ -1356,29 +1396,29 @@
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -1386,28 +1426,23 @@
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
-      <c r="F14" s="8" t="inlineStr"/>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
@@ -1417,224 +1452,255 @@
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
       <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E16" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB02
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
         </is>
       </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E17" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="12" t="n"/>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>CL06</t>
-        </is>
-      </c>
       <c r="C18" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
-      <c r="F18" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
       <c r="F19" s="8" t="inlineStr"/>
-      <c r="G19" s="8" t="inlineStr"/>
-      <c r="H19" s="9" t="inlineStr">
+      <c r="G19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="9" t="inlineStr">
         <is>
           <t>Lập trình cơ bản
 (Lý thuyết)
 Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I19" s="8" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D20" s="8" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr"/>
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G20" s="8" t="inlineStr"/>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="10" t="n"/>
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R102
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="12" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D22" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="8" t="inlineStr"/>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
 GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1647,7 +1713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1795,42 +1861,42 @@
         <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -1841,11 +1907,11 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
@@ -1857,7 +1923,7 @@
           <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
-GV: Nguyễn Văn A</t>
+GV: Lê Văn C</t>
         </is>
       </c>
     </row>
@@ -1865,25 +1931,32 @@
       <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
@@ -1903,29 +1976,29 @@
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -1933,28 +2006,23 @@
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
-      <c r="F14" s="8" t="inlineStr"/>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
@@ -1964,224 +2032,255 @@
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
       <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E16" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB02
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
         </is>
       </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E17" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="12" t="n"/>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>CL06</t>
-        </is>
-      </c>
       <c r="C18" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
-      <c r="F18" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
       <c r="F19" s="8" t="inlineStr"/>
-      <c r="G19" s="8" t="inlineStr"/>
-      <c r="H19" s="9" t="inlineStr">
+      <c r="G19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="9" t="inlineStr">
         <is>
           <t>Lập trình cơ bản
 (Lý thuyết)
 Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I19" s="8" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D20" s="8" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr"/>
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G20" s="8" t="inlineStr"/>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="10" t="n"/>
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R102
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="12" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D22" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="8" t="inlineStr"/>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
 GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2194,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2342,42 +2441,42 @@
         <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -2388,11 +2487,11 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
@@ -2404,7 +2503,7 @@
           <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
-GV: Nguyễn Văn A</t>
+GV: Lê Văn C</t>
         </is>
       </c>
     </row>
@@ -2412,25 +2511,32 @@
       <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
@@ -2450,29 +2556,29 @@
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -2480,28 +2586,23 @@
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
-      <c r="F14" s="8" t="inlineStr"/>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
@@ -2511,224 +2612,255 @@
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
       <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E16" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB02
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
         </is>
       </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E17" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="12" t="n"/>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>CL06</t>
-        </is>
-      </c>
       <c r="C18" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
-      <c r="F18" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
       <c r="F19" s="8" t="inlineStr"/>
-      <c r="G19" s="8" t="inlineStr"/>
-      <c r="H19" s="9" t="inlineStr">
+      <c r="G19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="9" t="inlineStr">
         <is>
           <t>Lập trình cơ bản
 (Lý thuyết)
 Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I19" s="8" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D20" s="8" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr"/>
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G20" s="8" t="inlineStr"/>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="10" t="n"/>
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R102
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="12" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D22" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="8" t="inlineStr"/>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
 GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2741,7 +2873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2889,42 +3021,42 @@
         <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -2935,11 +3067,11 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
@@ -2951,7 +3083,7 @@
           <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
-GV: Nguyễn Văn A</t>
+GV: Lê Văn C</t>
         </is>
       </c>
     </row>
@@ -2959,25 +3091,32 @@
       <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
@@ -2997,29 +3136,29 @@
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -3027,28 +3166,23 @@
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
-      <c r="F14" s="8" t="inlineStr"/>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
@@ -3058,224 +3192,255 @@
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
       <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E16" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB02
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
         </is>
       </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E17" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="12" t="n"/>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>CL06</t>
-        </is>
-      </c>
       <c r="C18" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
-      <c r="F18" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
       <c r="F19" s="8" t="inlineStr"/>
-      <c r="G19" s="8" t="inlineStr"/>
-      <c r="H19" s="9" t="inlineStr">
+      <c r="G19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="9" t="inlineStr">
         <is>
           <t>Lập trình cơ bản
 (Lý thuyết)
 Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I19" s="8" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D20" s="8" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr"/>
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G20" s="8" t="inlineStr"/>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="10" t="n"/>
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R102
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="12" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D22" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="8" t="inlineStr"/>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
 GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3288,7 +3453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3436,42 +3601,42 @@
         <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -3482,11 +3647,11 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
@@ -3498,7 +3663,7 @@
           <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
-GV: Nguyễn Văn A</t>
+GV: Lê Văn C</t>
         </is>
       </c>
     </row>
@@ -3506,25 +3671,32 @@
       <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
@@ -3544,29 +3716,29 @@
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -3574,28 +3746,23 @@
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
-      <c r="F14" s="8" t="inlineStr"/>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
@@ -3605,224 +3772,255 @@
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
       <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E16" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB02
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
         </is>
       </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E17" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="12" t="n"/>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>CL06</t>
-        </is>
-      </c>
       <c r="C18" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
-      <c r="F18" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
       <c r="F19" s="8" t="inlineStr"/>
-      <c r="G19" s="8" t="inlineStr"/>
-      <c r="H19" s="9" t="inlineStr">
+      <c r="G19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="9" t="inlineStr">
         <is>
           <t>Lập trình cơ bản
 (Lý thuyết)
 Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I19" s="8" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D20" s="8" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr"/>
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G20" s="8" t="inlineStr"/>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="10" t="n"/>
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R102
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="12" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D22" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="8" t="inlineStr"/>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
 GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3835,7 +4033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3983,42 +4181,42 @@
         <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -4029,11 +4227,11 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
@@ -4045,7 +4243,7 @@
           <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
-GV: Nguyễn Văn A</t>
+GV: Lê Văn C</t>
         </is>
       </c>
     </row>
@@ -4053,25 +4251,32 @@
       <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
@@ -4091,29 +4296,29 @@
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -4121,28 +4326,23 @@
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
-      <c r="F14" s="8" t="inlineStr"/>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
@@ -4152,224 +4352,255 @@
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
       <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E16" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB02
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
         </is>
       </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E17" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="12" t="n"/>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>CL06</t>
-        </is>
-      </c>
       <c r="C18" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
-      <c r="F18" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
       <c r="F19" s="8" t="inlineStr"/>
-      <c r="G19" s="8" t="inlineStr"/>
-      <c r="H19" s="9" t="inlineStr">
+      <c r="G19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="9" t="inlineStr">
         <is>
           <t>Lập trình cơ bản
 (Lý thuyết)
 Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I19" s="8" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D20" s="8" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr"/>
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G20" s="8" t="inlineStr"/>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="10" t="n"/>
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R102
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="12" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D22" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="8" t="inlineStr"/>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
 GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4382,7 +4613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4530,42 +4761,42 @@
         <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -4576,11 +4807,11 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
@@ -4592,7 +4823,7 @@
           <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
-GV: Nguyễn Văn A</t>
+GV: Lê Văn C</t>
         </is>
       </c>
     </row>
@@ -4600,25 +4831,32 @@
       <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
@@ -4638,29 +4876,29 @@
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -4668,28 +4906,23 @@
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
-      <c r="F14" s="8" t="inlineStr"/>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
@@ -4699,224 +4932,255 @@
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
       <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E16" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB02
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
         </is>
       </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E17" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="12" t="n"/>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>CL06</t>
-        </is>
-      </c>
       <c r="C18" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
-      <c r="F18" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
       <c r="F19" s="8" t="inlineStr"/>
-      <c r="G19" s="8" t="inlineStr"/>
-      <c r="H19" s="9" t="inlineStr">
+      <c r="G19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="9" t="inlineStr">
         <is>
           <t>Lập trình cơ bản
 (Lý thuyết)
 Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I19" s="8" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D20" s="8" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr"/>
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G20" s="8" t="inlineStr"/>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="10" t="n"/>
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R102
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="12" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D22" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="8" t="inlineStr"/>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
 GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4929,7 +5193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5077,42 +5341,42 @@
         <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -5123,11 +5387,11 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
@@ -5139,7 +5403,7 @@
           <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
-GV: Nguyễn Văn A</t>
+GV: Lê Văn C</t>
         </is>
       </c>
     </row>
@@ -5147,25 +5411,32 @@
       <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
@@ -5185,29 +5456,29 @@
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -5215,28 +5486,23 @@
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
-      <c r="F14" s="8" t="inlineStr"/>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
@@ -5246,224 +5512,255 @@
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
       <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E16" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB02
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
         </is>
       </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E17" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="12" t="n"/>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>CL06</t>
-        </is>
-      </c>
       <c r="C18" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
-      <c r="F18" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
       <c r="F19" s="8" t="inlineStr"/>
-      <c r="G19" s="8" t="inlineStr"/>
-      <c r="H19" s="9" t="inlineStr">
+      <c r="G19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="9" t="inlineStr">
         <is>
           <t>Lập trình cơ bản
 (Lý thuyết)
 Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I19" s="8" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D20" s="8" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr"/>
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G20" s="8" t="inlineStr"/>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="10" t="n"/>
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R102
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="12" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D22" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="8" t="inlineStr"/>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
 GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5476,7 +5773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5624,42 +5921,42 @@
         <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -5670,11 +5967,11 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
@@ -5686,7 +5983,7 @@
           <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
-GV: Nguyễn Văn A</t>
+GV: Lê Văn C</t>
         </is>
       </c>
     </row>
@@ -5694,25 +5991,32 @@
       <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
@@ -5732,29 +6036,29 @@
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -5762,28 +6066,23 @@
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
-      <c r="F14" s="8" t="inlineStr"/>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
@@ -5793,224 +6092,255 @@
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
       <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E16" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB02
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
         </is>
       </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E17" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="12" t="n"/>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>CL06</t>
-        </is>
-      </c>
       <c r="C18" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
-      <c r="F18" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
       <c r="F19" s="8" t="inlineStr"/>
-      <c r="G19" s="8" t="inlineStr"/>
-      <c r="H19" s="9" t="inlineStr">
+      <c r="G19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="9" t="inlineStr">
         <is>
           <t>Lập trình cơ bản
 (Lý thuyết)
 Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I19" s="8" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D20" s="8" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr"/>
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G20" s="8" t="inlineStr"/>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="10" t="n"/>
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R102
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="12" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D22" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="8" t="inlineStr"/>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
 GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6023,7 +6353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6171,42 +6501,42 @@
         <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -6217,11 +6547,11 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
@@ -6233,7 +6563,7 @@
           <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
-GV: Nguyễn Văn A</t>
+GV: Lê Văn C</t>
         </is>
       </c>
     </row>
@@ -6241,25 +6571,32 @@
       <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
@@ -6279,29 +6616,29 @@
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -6309,28 +6646,23 @@
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
-      <c r="F14" s="8" t="inlineStr"/>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
@@ -6340,224 +6672,255 @@
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
       <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E16" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB02
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
         </is>
       </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E17" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="12" t="n"/>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>CL06</t>
-        </is>
-      </c>
       <c r="C18" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
-      <c r="F18" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
       <c r="F19" s="8" t="inlineStr"/>
-      <c r="G19" s="8" t="inlineStr"/>
-      <c r="H19" s="9" t="inlineStr">
+      <c r="G19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="9" t="inlineStr">
         <is>
           <t>Lập trình cơ bản
 (Lý thuyết)
 Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I19" s="8" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D20" s="8" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr"/>
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G20" s="8" t="inlineStr"/>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="10" t="n"/>
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R102
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="12" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D22" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="8" t="inlineStr"/>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
 GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6570,7 +6933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6718,42 +7081,42 @@
         <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -6764,11 +7127,11 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
@@ -6780,7 +7143,7 @@
           <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
-GV: Nguyễn Văn A</t>
+GV: Lê Văn C</t>
         </is>
       </c>
     </row>
@@ -6788,25 +7151,32 @@
       <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
@@ -6826,29 +7196,29 @@
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -6856,28 +7226,23 @@
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
-      <c r="F14" s="8" t="inlineStr"/>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
@@ -6887,224 +7252,255 @@
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
       <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E16" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB02
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
         </is>
       </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E17" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="12" t="n"/>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>CL06</t>
-        </is>
-      </c>
       <c r="C18" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
-      <c r="F18" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
       <c r="F19" s="8" t="inlineStr"/>
-      <c r="G19" s="8" t="inlineStr"/>
-      <c r="H19" s="9" t="inlineStr">
+      <c r="G19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="9" t="inlineStr">
         <is>
           <t>Lập trình cơ bản
 (Lý thuyết)
 Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I19" s="8" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D20" s="8" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr"/>
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G20" s="8" t="inlineStr"/>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="10" t="n"/>
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R102
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="12" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D22" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="8" t="inlineStr"/>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
 GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7117,7 +7513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7265,42 +7661,42 @@
         <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -7311,11 +7707,11 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
@@ -7327,7 +7723,7 @@
           <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
-GV: Nguyễn Văn A</t>
+GV: Lê Văn C</t>
         </is>
       </c>
     </row>
@@ -7335,25 +7731,32 @@
       <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
@@ -7373,29 +7776,29 @@
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -7403,28 +7806,23 @@
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
-      <c r="F14" s="8" t="inlineStr"/>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
@@ -7434,224 +7832,255 @@
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
       <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E16" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB02
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
         </is>
       </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E17" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="12" t="n"/>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>CL06</t>
-        </is>
-      </c>
       <c r="C18" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
-      <c r="F18" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
       <c r="F19" s="8" t="inlineStr"/>
-      <c r="G19" s="8" t="inlineStr"/>
-      <c r="H19" s="9" t="inlineStr">
+      <c r="G19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="9" t="inlineStr">
         <is>
           <t>Lập trình cơ bản
 (Lý thuyết)
 Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I19" s="8" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D20" s="8" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr"/>
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G20" s="8" t="inlineStr"/>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="10" t="n"/>
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R102
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="12" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D22" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="8" t="inlineStr"/>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
 GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7664,7 +8093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7812,42 +8241,42 @@
         <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -7858,11 +8287,11 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
@@ -7874,7 +8303,7 @@
           <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
-GV: Nguyễn Văn A</t>
+GV: Lê Văn C</t>
         </is>
       </c>
     </row>
@@ -7882,25 +8311,32 @@
       <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
@@ -7920,29 +8356,29 @@
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -7950,28 +8386,23 @@
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
-      <c r="F14" s="8" t="inlineStr"/>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
@@ -7981,224 +8412,255 @@
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
       <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E16" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB02
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
         </is>
       </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E17" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="12" t="n"/>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>CL06</t>
-        </is>
-      </c>
       <c r="C18" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
-      <c r="F18" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
       <c r="F19" s="8" t="inlineStr"/>
-      <c r="G19" s="8" t="inlineStr"/>
-      <c r="H19" s="9" t="inlineStr">
+      <c r="G19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="9" t="inlineStr">
         <is>
           <t>Lập trình cơ bản
 (Lý thuyết)
 Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I19" s="8" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D20" s="8" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr"/>
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G20" s="8" t="inlineStr"/>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="10" t="n"/>
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R102
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="12" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D22" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="8" t="inlineStr"/>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
 GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8211,7 +8673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8359,42 +8821,42 @@
         <v>38</v>
       </c>
       <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="E9" s="8" t="inlineStr"/>
       <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="I9" s="8" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C10" s="8" t="n">
         <v>35</v>
       </c>
       <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -8405,11 +8867,11 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL02</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D11" s="8" t="inlineStr"/>
       <c r="E11" s="8" t="inlineStr"/>
@@ -8421,7 +8883,7 @@
           <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB03
-GV: Nguyễn Văn A</t>
+GV: Lê Văn C</t>
         </is>
       </c>
     </row>
@@ -8429,25 +8891,32 @@
       <c r="A12" s="10" t="n"/>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="F12" s="8" t="inlineStr"/>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr"/>
-      <c r="I12" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H12" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R102
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="7" t="inlineStr">
@@ -8467,29 +8936,29 @@
       <c r="D13" s="8" t="inlineStr"/>
       <c r="E13" s="9" t="inlineStr">
         <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr"/>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="10" t="n"/>
+      <c r="A14" s="12" t="n"/>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL02</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -8497,28 +8966,23 @@
       </c>
       <c r="D14" s="8" t="inlineStr"/>
       <c r="E14" s="8" t="inlineStr"/>
-      <c r="F14" s="8" t="inlineStr"/>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB01
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
+      <c r="H14" s="8" t="inlineStr"/>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+      <c r="A15" s="12" t="n"/>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>CL01</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C15" s="8" t="n">
@@ -8528,224 +8992,255 @@
       <c r="E15" s="8" t="inlineStr"/>
       <c r="F15" s="8" t="inlineStr"/>
       <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I15" s="8" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr"/>
+      <c r="I15" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Thực hành)
+Phòng: LAB02
+GV: Lê Văn C</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>CL06</t>
+          <t>CL07</t>
         </is>
       </c>
       <c r="C16" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D16" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E16" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
+        <v>35</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr"/>
+      <c r="G16" s="8" t="inlineStr"/>
+      <c r="H16" s="11" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
 (Thực hành)
 Phòng: LAB02
 GV: Nguyễn Văn A</t>
         </is>
       </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="11" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Thực hành)
-Phòng: LAB02
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="H16" s="8" t="inlineStr"/>
       <c r="I16" s="8" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="7" t="inlineStr">
         <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>CL06</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB02
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="F17" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
           <t>T1
 (17:30-19:30)</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>CL02</t>
         </is>
       </c>
-      <c r="C17" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="E17" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="12" t="n"/>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>CL06</t>
-        </is>
-      </c>
       <c r="C18" s="8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" s="8" t="inlineStr"/>
       <c r="E18" s="8" t="inlineStr"/>
-      <c r="F18" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R104
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
+      <c r="F18" s="8" t="inlineStr"/>
       <c r="G18" s="8" t="inlineStr"/>
       <c r="H18" s="8" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R102
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="12" t="n"/>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL06</t>
         </is>
       </c>
       <c r="C19" s="8" t="n">
-        <v>35</v>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R102
-GV: Lê Văn C</t>
-        </is>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr"/>
       <c r="F19" s="8" t="inlineStr"/>
-      <c r="G19" s="8" t="inlineStr"/>
-      <c r="H19" s="9" t="inlineStr">
+      <c r="G19" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
+      <c r="H19" s="8" t="inlineStr"/>
+      <c r="I19" s="8" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="9" t="inlineStr">
         <is>
           <t>Lập trình cơ bản
 (Lý thuyết)
 Phòng: R102
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="I19" s="8" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>CL01</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="n">
-        <v>38</v>
-      </c>
-      <c r="D20" s="8" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lập trình cơ bản
-(Lý thuyết)
-Phòng: R104
-GV: Lê Văn C</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr"/>
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="G20" s="8" t="inlineStr"/>
       <c r="H20" s="8" t="inlineStr"/>
       <c r="I20" s="8" t="inlineStr"/>
     </row>
     <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="10" t="n"/>
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>CL07</t>
+          <t>CL01</t>
         </is>
       </c>
       <c r="C21" s="8" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D21" s="8" t="inlineStr"/>
       <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="11" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Thực hành)
-Phòng: LAB03
-GV: Nguyễn Văn A</t>
-        </is>
-      </c>
-      <c r="G21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Lập trình cơ bản
+(Lý thuyết)
+Phòng: R104
+GV: Lê Văn C</t>
+        </is>
+      </c>
       <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="9" t="inlineStr">
-        <is>
-          <t>Cơ sở dữ liệu
-(Lý thuyết)
-Phòng: R102
+      <c r="I21" s="8" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="12" t="n"/>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>CL02</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D22" s="11" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Thực hành)
+Phòng: LAB01
+GV: Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr"/>
+      <c r="I22" s="8" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>CL07</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr"/>
+      <c r="G23" s="8" t="inlineStr"/>
+      <c r="H23" s="8" t="inlineStr"/>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Cơ sở dữ liệu
+(Lý thuyết)
+Phòng: R104
 GV: Nguyễn Văn A</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
